--- a/spreadsheets/new/GSE92280.0.xlsx
+++ b/spreadsheets/new/GSE92280.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E3EDE-3575-2E43-9DEE-6E0702785656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25280" windowHeight="15600" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_line" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,12 @@
     <sheet name="Sequencing_protocol" sheetId="10" r:id="rId10"/>
     <sheet name="Specimen_from_organism" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="1767">
   <si>
     <t>CELL_LINE.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -5319,13 +5325,19 @@
   </si>
   <si>
     <t>hESCs (H9)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5362,6 +5374,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5408,7 +5428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5440,9 +5460,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5474,6 +5512,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5649,97 +5705,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" customWidth="1"/>
-    <col min="13" max="13" width="120.7109375" customWidth="1"/>
-    <col min="14" max="14" width="70.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="120.7109375" customWidth="1"/>
-    <col min="18" max="18" width="69.7109375" customWidth="1"/>
-    <col min="19" max="19" width="58.7109375" customWidth="1"/>
-    <col min="20" max="20" width="141.7109375" customWidth="1"/>
-    <col min="21" max="21" width="57.7109375" customWidth="1"/>
-    <col min="22" max="22" width="85.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="57.7109375" customWidth="1"/>
-    <col min="28" max="28" width="48.7109375" customWidth="1"/>
-    <col min="29" max="29" width="68.7109375" customWidth="1"/>
-    <col min="30" max="30" width="62.7109375" customWidth="1"/>
-    <col min="31" max="31" width="81.7109375" customWidth="1"/>
-    <col min="32" max="32" width="61.7109375" customWidth="1"/>
-    <col min="33" max="33" width="195.7109375" customWidth="1"/>
-    <col min="34" max="34" width="62.7109375" customWidth="1"/>
-    <col min="35" max="35" width="150.7109375" customWidth="1"/>
-    <col min="36" max="36" width="78.7109375" customWidth="1"/>
-    <col min="37" max="37" width="49.7109375" customWidth="1"/>
-    <col min="38" max="38" width="69.7109375" customWidth="1"/>
-    <col min="39" max="39" width="58.7109375" customWidth="1"/>
-    <col min="40" max="40" width="141.7109375" customWidth="1"/>
-    <col min="41" max="41" width="60.7109375" customWidth="1"/>
-    <col min="42" max="42" width="68.7109375" customWidth="1"/>
-    <col min="43" max="43" width="58.7109375" customWidth="1"/>
-    <col min="44" max="44" width="141.7109375" customWidth="1"/>
-    <col min="45" max="45" width="129.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="63.7109375" customWidth="1"/>
-    <col min="50" max="50" width="58.7109375" customWidth="1"/>
-    <col min="51" max="51" width="141.7109375" customWidth="1"/>
-    <col min="52" max="52" width="67.7109375" customWidth="1"/>
-    <col min="53" max="53" width="55.7109375" customWidth="1"/>
-    <col min="54" max="54" width="68.7109375" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" customWidth="1"/>
-    <col min="56" max="56" width="68.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="80.7109375" customWidth="1"/>
-    <col min="63" max="63" width="73.7109375" customWidth="1"/>
-    <col min="64" max="64" width="71.7109375" customWidth="1"/>
-    <col min="65" max="65" width="75.7109375" customWidth="1"/>
-    <col min="66" max="66" width="32.7109375" customWidth="1"/>
-    <col min="67" max="67" width="67.7109375" customWidth="1"/>
-    <col min="68" max="68" width="41.7109375" customWidth="1"/>
-    <col min="69" max="69" width="84.7109375" customWidth="1"/>
-    <col min="70" max="70" width="104.7109375" customWidth="1"/>
-    <col min="71" max="71" width="104.7109375" customWidth="1"/>
-    <col min="72" max="72" width="104.7109375" customWidth="1"/>
-    <col min="73" max="73" width="88.7109375" customWidth="1"/>
-    <col min="74" max="74" width="69.7109375" customWidth="1"/>
-    <col min="75" max="75" width="58.7109375" customWidth="1"/>
-    <col min="76" max="76" width="141.7109375" customWidth="1"/>
-    <col min="77" max="77" width="67.7109375" customWidth="1"/>
-    <col min="78" max="78" width="58.7109375" customWidth="1"/>
-    <col min="79" max="79" width="141.7109375" customWidth="1"/>
-    <col min="80" max="80" width="79.7109375" customWidth="1"/>
-    <col min="81" max="81" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
+    <col min="12" max="12" width="52.6640625" customWidth="1"/>
+    <col min="13" max="13" width="120.6640625" customWidth="1"/>
+    <col min="14" max="14" width="70.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="120.6640625" customWidth="1"/>
+    <col min="18" max="18" width="69.6640625" customWidth="1"/>
+    <col min="19" max="19" width="58.6640625" customWidth="1"/>
+    <col min="20" max="20" width="141.6640625" customWidth="1"/>
+    <col min="21" max="21" width="57.6640625" customWidth="1"/>
+    <col min="22" max="22" width="85.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="57.6640625" customWidth="1"/>
+    <col min="28" max="28" width="48.6640625" customWidth="1"/>
+    <col min="29" max="29" width="68.6640625" customWidth="1"/>
+    <col min="30" max="30" width="62.6640625" customWidth="1"/>
+    <col min="31" max="31" width="81.6640625" customWidth="1"/>
+    <col min="32" max="32" width="61.6640625" customWidth="1"/>
+    <col min="33" max="33" width="195.6640625" customWidth="1"/>
+    <col min="34" max="34" width="62.6640625" customWidth="1"/>
+    <col min="35" max="35" width="150.6640625" customWidth="1"/>
+    <col min="36" max="36" width="78.6640625" customWidth="1"/>
+    <col min="37" max="37" width="49.6640625" customWidth="1"/>
+    <col min="38" max="38" width="69.6640625" customWidth="1"/>
+    <col min="39" max="39" width="58.6640625" customWidth="1"/>
+    <col min="40" max="40" width="141.6640625" customWidth="1"/>
+    <col min="41" max="41" width="60.6640625" customWidth="1"/>
+    <col min="42" max="42" width="68.6640625" customWidth="1"/>
+    <col min="43" max="43" width="58.6640625" customWidth="1"/>
+    <col min="44" max="44" width="141.6640625" customWidth="1"/>
+    <col min="45" max="45" width="129.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="63.6640625" customWidth="1"/>
+    <col min="50" max="50" width="58.6640625" customWidth="1"/>
+    <col min="51" max="51" width="141.6640625" customWidth="1"/>
+    <col min="52" max="52" width="67.6640625" customWidth="1"/>
+    <col min="53" max="53" width="55.6640625" customWidth="1"/>
+    <col min="54" max="54" width="68.6640625" customWidth="1"/>
+    <col min="55" max="55" width="34.6640625" customWidth="1"/>
+    <col min="56" max="56" width="68.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="80.6640625" customWidth="1"/>
+    <col min="63" max="63" width="73.6640625" customWidth="1"/>
+    <col min="64" max="64" width="71.6640625" customWidth="1"/>
+    <col min="65" max="65" width="75.6640625" customWidth="1"/>
+    <col min="66" max="66" width="32.6640625" customWidth="1"/>
+    <col min="67" max="67" width="67.6640625" customWidth="1"/>
+    <col min="68" max="68" width="41.6640625" customWidth="1"/>
+    <col min="69" max="69" width="84.6640625" customWidth="1"/>
+    <col min="70" max="72" width="104.6640625" customWidth="1"/>
+    <col min="73" max="73" width="88.6640625" customWidth="1"/>
+    <col min="74" max="74" width="69.6640625" customWidth="1"/>
+    <col min="75" max="75" width="58.6640625" customWidth="1"/>
+    <col min="76" max="76" width="141.6640625" customWidth="1"/>
+    <col min="77" max="77" width="67.6640625" customWidth="1"/>
+    <col min="78" max="78" width="58.6640625" customWidth="1"/>
+    <col min="79" max="79" width="141.6640625" customWidth="1"/>
+    <col min="80" max="80" width="79.6640625" customWidth="1"/>
+    <col min="81" max="81" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +6040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -6229,7 +6285,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -6453,7 +6509,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -6698,12 +6754,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -6714,7 +6770,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -6731,34 +6787,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="438.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="438.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1227</v>
       </c>
@@ -6814,7 +6872,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -6870,7 +6928,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -6920,7 +6978,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1258</v>
       </c>
@@ -6976,12 +7034,12 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1263</v>
       </c>
@@ -6991,8 +7049,11 @@
       <c r="G6" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1659</v>
       </c>
@@ -7002,8 +7063,11 @@
       <c r="G7" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="K7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1660</v>
       </c>
@@ -7013,8 +7077,11 @@
       <c r="G8" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="K8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1661</v>
       </c>
@@ -7023,6 +7090,9 @@
       </c>
       <c r="G9" t="s">
         <v>1658</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
@@ -7031,76 +7101,75 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -7282,7 +7351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -7464,7 +7533,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -7625,7 +7694,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -7807,12 +7876,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -7832,7 +7901,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>704</v>
       </c>
@@ -7852,7 +7921,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>709</v>
       </c>
@@ -7872,7 +7941,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>728</v>
       </c>
@@ -7892,7 +7961,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>758</v>
       </c>
@@ -7918,75 +7987,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG206"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -8165,7 +8230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -8344,7 +8409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -8502,7 +8567,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -8681,12 +8746,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>346</v>
       </c>
@@ -8712,7 +8777,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -8738,7 +8803,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -8764,7 +8829,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -8790,7 +8855,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -8816,7 +8881,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>361</v>
       </c>
@@ -8842,7 +8907,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -8868,7 +8933,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -8894,7 +8959,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -8920,7 +8985,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -8946,7 +9011,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>371</v>
       </c>
@@ -8972,7 +9037,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>373</v>
       </c>
@@ -8998,7 +9063,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>375</v>
       </c>
@@ -9024,7 +9089,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -9050,7 +9115,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>379</v>
       </c>
@@ -9076,7 +9141,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -9102,7 +9167,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>383</v>
       </c>
@@ -9128,7 +9193,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>385</v>
       </c>
@@ -9154,7 +9219,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -9180,7 +9245,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -9206,7 +9271,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>391</v>
       </c>
@@ -9232,7 +9297,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -9258,7 +9323,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>395</v>
       </c>
@@ -9284,7 +9349,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>397</v>
       </c>
@@ -9310,7 +9375,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>399</v>
       </c>
@@ -9336,7 +9401,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>401</v>
       </c>
@@ -9362,7 +9427,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>403</v>
       </c>
@@ -9388,7 +9453,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>405</v>
       </c>
@@ -9414,7 +9479,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>407</v>
       </c>
@@ -9440,7 +9505,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>409</v>
       </c>
@@ -9466,7 +9531,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>411</v>
       </c>
@@ -9492,7 +9557,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>413</v>
       </c>
@@ -9518,7 +9583,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>415</v>
       </c>
@@ -9544,7 +9609,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>417</v>
       </c>
@@ -9570,7 +9635,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>419</v>
       </c>
@@ -9596,7 +9661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>421</v>
       </c>
@@ -9622,7 +9687,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>423</v>
       </c>
@@ -9648,7 +9713,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>425</v>
       </c>
@@ -9674,7 +9739,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>427</v>
       </c>
@@ -9700,7 +9765,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>429</v>
       </c>
@@ -9726,7 +9791,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>431</v>
       </c>
@@ -9752,7 +9817,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>433</v>
       </c>
@@ -9778,7 +9843,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>435</v>
       </c>
@@ -9804,7 +9869,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -9830,7 +9895,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>439</v>
       </c>
@@ -9856,7 +9921,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>441</v>
       </c>
@@ -9882,7 +9947,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>443</v>
       </c>
@@ -9908,7 +9973,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>445</v>
       </c>
@@ -9934,7 +9999,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>447</v>
       </c>
@@ -9960,7 +10025,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>449</v>
       </c>
@@ -9986,7 +10051,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>451</v>
       </c>
@@ -10012,7 +10077,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>453</v>
       </c>
@@ -10038,7 +10103,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -10064,7 +10129,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>457</v>
       </c>
@@ -10090,7 +10155,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>459</v>
       </c>
@@ -10116,7 +10181,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -10142,7 +10207,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>463</v>
       </c>
@@ -10168,7 +10233,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>465</v>
       </c>
@@ -10194,7 +10259,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>467</v>
       </c>
@@ -10220,7 +10285,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>469</v>
       </c>
@@ -10246,7 +10311,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>471</v>
       </c>
@@ -10272,7 +10337,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>473</v>
       </c>
@@ -10298,7 +10363,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>475</v>
       </c>
@@ -10324,7 +10389,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>477</v>
       </c>
@@ -10350,7 +10415,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>479</v>
       </c>
@@ -10376,7 +10441,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>481</v>
       </c>
@@ -10402,7 +10467,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>483</v>
       </c>
@@ -10428,7 +10493,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>485</v>
       </c>
@@ -10454,7 +10519,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>487</v>
       </c>
@@ -10480,7 +10545,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>489</v>
       </c>
@@ -10506,7 +10571,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>491</v>
       </c>
@@ -10532,7 +10597,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>493</v>
       </c>
@@ -10558,7 +10623,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>495</v>
       </c>
@@ -10584,7 +10649,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>497</v>
       </c>
@@ -10610,7 +10675,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>499</v>
       </c>
@@ -10636,7 +10701,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>501</v>
       </c>
@@ -10662,7 +10727,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>503</v>
       </c>
@@ -10688,7 +10753,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>505</v>
       </c>
@@ -10714,7 +10779,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>507</v>
       </c>
@@ -10740,7 +10805,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>509</v>
       </c>
@@ -10766,7 +10831,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>511</v>
       </c>
@@ -10792,7 +10857,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>513</v>
       </c>
@@ -10818,7 +10883,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>515</v>
       </c>
@@ -10844,7 +10909,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>517</v>
       </c>
@@ -10870,7 +10935,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>519</v>
       </c>
@@ -10896,7 +10961,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>521</v>
       </c>
@@ -10922,7 +10987,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>523</v>
       </c>
@@ -10948,7 +11013,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>525</v>
       </c>
@@ -10974,7 +11039,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>527</v>
       </c>
@@ -11000,7 +11065,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>529</v>
       </c>
@@ -11026,7 +11091,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>531</v>
       </c>
@@ -11052,7 +11117,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>533</v>
       </c>
@@ -11078,7 +11143,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>535</v>
       </c>
@@ -11104,7 +11169,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>537</v>
       </c>
@@ -11130,7 +11195,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>539</v>
       </c>
@@ -11156,7 +11221,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>541</v>
       </c>
@@ -11182,7 +11247,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>543</v>
       </c>
@@ -11208,7 +11273,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>545</v>
       </c>
@@ -11234,7 +11299,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>547</v>
       </c>
@@ -11260,7 +11325,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>549</v>
       </c>
@@ -11286,7 +11351,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>551</v>
       </c>
@@ -11312,7 +11377,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>553</v>
       </c>
@@ -11338,7 +11403,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>556</v>
       </c>
@@ -11364,7 +11429,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>558</v>
       </c>
@@ -11390,7 +11455,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>560</v>
       </c>
@@ -11416,7 +11481,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>562</v>
       </c>
@@ -11442,7 +11507,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>564</v>
       </c>
@@ -11468,7 +11533,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>566</v>
       </c>
@@ -11494,7 +11559,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>568</v>
       </c>
@@ -11520,7 +11585,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>570</v>
       </c>
@@ -11546,7 +11611,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>572</v>
       </c>
@@ -11572,7 +11637,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>574</v>
       </c>
@@ -11598,7 +11663,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>576</v>
       </c>
@@ -11624,7 +11689,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>578</v>
       </c>
@@ -11650,7 +11715,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>580</v>
       </c>
@@ -11676,7 +11741,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>582</v>
       </c>
@@ -11702,7 +11767,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>584</v>
       </c>
@@ -11728,7 +11793,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>586</v>
       </c>
@@ -11754,7 +11819,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>588</v>
       </c>
@@ -11780,7 +11845,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>590</v>
       </c>
@@ -11806,7 +11871,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>592</v>
       </c>
@@ -11832,7 +11897,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>594</v>
       </c>
@@ -11858,7 +11923,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>596</v>
       </c>
@@ -11884,7 +11949,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>598</v>
       </c>
@@ -11910,7 +11975,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>600</v>
       </c>
@@ -11936,7 +12001,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>602</v>
       </c>
@@ -11962,7 +12027,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>604</v>
       </c>
@@ -11988,7 +12053,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>606</v>
       </c>
@@ -12014,7 +12079,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>608</v>
       </c>
@@ -12040,7 +12105,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>610</v>
       </c>
@@ -12066,7 +12131,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>612</v>
       </c>
@@ -12092,7 +12157,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>614</v>
       </c>
@@ -12118,7 +12183,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>616</v>
       </c>
@@ -12144,7 +12209,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>618</v>
       </c>
@@ -12170,7 +12235,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>620</v>
       </c>
@@ -12196,7 +12261,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>622</v>
       </c>
@@ -12222,7 +12287,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>624</v>
       </c>
@@ -12248,7 +12313,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>626</v>
       </c>
@@ -12274,7 +12339,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>628</v>
       </c>
@@ -12300,7 +12365,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>630</v>
       </c>
@@ -12326,7 +12391,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>632</v>
       </c>
@@ -12352,7 +12417,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>634</v>
       </c>
@@ -12378,7 +12443,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>636</v>
       </c>
@@ -12404,7 +12469,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>638</v>
       </c>
@@ -12430,7 +12495,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>640</v>
       </c>
@@ -12456,7 +12521,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>642</v>
       </c>
@@ -12482,7 +12547,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>644</v>
       </c>
@@ -12508,7 +12573,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>646</v>
       </c>
@@ -12534,7 +12599,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>648</v>
       </c>
@@ -12560,7 +12625,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>650</v>
       </c>
@@ -12586,7 +12651,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>652</v>
       </c>
@@ -12612,7 +12677,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>654</v>
       </c>
@@ -12638,7 +12703,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>656</v>
       </c>
@@ -12664,7 +12729,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>658</v>
       </c>
@@ -12690,7 +12755,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>660</v>
       </c>
@@ -12716,7 +12781,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>662</v>
       </c>
@@ -12742,7 +12807,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>664</v>
       </c>
@@ -12768,7 +12833,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>666</v>
       </c>
@@ -12794,7 +12859,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>668</v>
       </c>
@@ -12820,7 +12885,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>670</v>
       </c>
@@ -12846,7 +12911,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>672</v>
       </c>
@@ -12872,7 +12937,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>674</v>
       </c>
@@ -12898,7 +12963,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>676</v>
       </c>
@@ -12924,7 +12989,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>678</v>
       </c>
@@ -12950,7 +13015,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>680</v>
       </c>
@@ -12976,7 +13041,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>682</v>
       </c>
@@ -13002,7 +13067,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>684</v>
       </c>
@@ -13028,7 +13093,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>686</v>
       </c>
@@ -13054,7 +13119,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>688</v>
       </c>
@@ -13080,7 +13145,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>690</v>
       </c>
@@ -13106,7 +13171,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>692</v>
       </c>
@@ -13132,7 +13197,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>694</v>
       </c>
@@ -13158,7 +13223,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>696</v>
       </c>
@@ -13184,7 +13249,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>698</v>
       </c>
@@ -13210,7 +13275,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>700</v>
       </c>
@@ -13236,7 +13301,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>702</v>
       </c>
@@ -13262,7 +13327,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>705</v>
       </c>
@@ -13288,7 +13353,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:43">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>707</v>
       </c>
@@ -13314,7 +13379,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184" spans="1:43">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>710</v>
       </c>
@@ -13340,7 +13405,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>712</v>
       </c>
@@ -13366,7 +13431,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="186" spans="1:43">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>715</v>
       </c>
@@ -13392,7 +13457,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="187" spans="1:43">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>717</v>
       </c>
@@ -13418,7 +13483,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="188" spans="1:43">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>719</v>
       </c>
@@ -13444,7 +13509,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:43">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>721</v>
       </c>
@@ -13470,7 +13535,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="190" spans="1:43">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>724</v>
       </c>
@@ -13496,7 +13561,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="191" spans="1:43">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>726</v>
       </c>
@@ -13522,7 +13587,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="192" spans="1:43">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>729</v>
       </c>
@@ -13548,7 +13613,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="193" spans="1:43">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>731</v>
       </c>
@@ -13574,7 +13639,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="194" spans="1:43">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>733</v>
       </c>
@@ -13600,7 +13665,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="195" spans="1:43">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>735</v>
       </c>
@@ -13626,7 +13691,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="196" spans="1:43">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>737</v>
       </c>
@@ -13652,7 +13717,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="197" spans="1:43">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>739</v>
       </c>
@@ -13678,7 +13743,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="198" spans="1:43">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>741</v>
       </c>
@@ -13704,7 +13769,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="199" spans="1:43">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>743</v>
       </c>
@@ -13730,7 +13795,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="200" spans="1:43">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>745</v>
       </c>
@@ -13756,7 +13821,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="201" spans="1:43">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>747</v>
       </c>
@@ -13782,7 +13847,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="202" spans="1:43">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>749</v>
       </c>
@@ -13808,7 +13873,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="203" spans="1:43">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>751</v>
       </c>
@@ -13834,7 +13899,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="204" spans="1:43">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>753</v>
       </c>
@@ -13860,7 +13925,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="205" spans="1:43">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>755</v>
       </c>
@@ -13886,7 +13951,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="206" spans="1:43">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>759</v>
       </c>
@@ -13918,93 +13983,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>761</v>
       </c>
@@ -14237,7 +14300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -14470,7 +14533,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -14685,7 +14748,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>863</v>
       </c>
@@ -14918,12 +14981,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>924</v>
       </c>
@@ -14937,7 +15000,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>927</v>
       </c>
@@ -14951,7 +15014,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>928</v>
       </c>
@@ -14965,7 +15028,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>929</v>
       </c>
@@ -14979,7 +15042,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>930</v>
       </c>
@@ -14999,28 +15062,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62.7109375" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="10" width="141.6640625" customWidth="1"/>
+    <col min="11" max="12" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -15058,7 +15119,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -15096,7 +15157,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -15128,7 +15189,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>261</v>
       </c>
@@ -15166,12 +15227,12 @@
         <v>965</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -15179,7 +15240,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>555</v>
       </c>
@@ -15187,7 +15248,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>714</v>
       </c>
@@ -15195,7 +15256,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>723</v>
       </c>
@@ -15203,7 +15264,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -15217,67 +15278,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="438.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="438.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>966</v>
       </c>
@@ -15432,7 +15491,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -15587,7 +15646,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -15736,7 +15795,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1056</v>
       </c>
@@ -15891,12 +15950,12 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1107</v>
       </c>
@@ -15907,7 +15966,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1110</v>
       </c>
@@ -15918,7 +15977,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1113</v>
       </c>
@@ -15929,7 +15988,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1116</v>
       </c>
@@ -15946,25 +16005,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="113.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1118</v>
       </c>
@@ -15993,7 +16051,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1127</v>
       </c>
@@ -16022,7 +16080,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1136</v>
       </c>
@@ -16051,7 +16109,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1145</v>
       </c>
@@ -16080,12 +16138,12 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1154</v>
       </c>
@@ -16108,28 +16166,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1159</v>
       </c>
@@ -16167,7 +16225,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1171</v>
       </c>
@@ -16205,7 +16263,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1181</v>
       </c>
@@ -16243,7 +16301,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1192</v>
       </c>
@@ -16281,12 +16339,12 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1204</v>
       </c>
@@ -16312,21 +16370,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -16343,7 +16401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -16360,7 +16418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -16377,7 +16435,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1210</v>
       </c>
@@ -16394,12 +16452,12 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1215</v>
       </c>
@@ -16410,46 +16468,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD180"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1216</v>
       </c>
@@ -16541,7 +16597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1228</v>
       </c>
@@ -16633,7 +16689,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1237</v>
       </c>
@@ -16713,7 +16769,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1247</v>
       </c>
@@ -16805,12 +16861,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1259</v>
       </c>
@@ -16833,7 +16889,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1264</v>
       </c>
@@ -16856,7 +16912,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1266</v>
       </c>
@@ -16879,7 +16935,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1268</v>
       </c>
@@ -16902,7 +16958,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1270</v>
       </c>
@@ -16925,7 +16981,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1272</v>
       </c>
@@ -16948,7 +17004,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1274</v>
       </c>
@@ -16971,7 +17027,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1276</v>
       </c>
@@ -16994,7 +17050,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1278</v>
       </c>
@@ -17017,7 +17073,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1280</v>
       </c>
@@ -17040,7 +17096,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1282</v>
       </c>
@@ -17063,7 +17119,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1284</v>
       </c>
@@ -17086,7 +17142,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1286</v>
       </c>
@@ -17109,7 +17165,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1288</v>
       </c>
@@ -17132,7 +17188,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1290</v>
       </c>
@@ -17155,7 +17211,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1292</v>
       </c>
@@ -17178,7 +17234,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1294</v>
       </c>
@@ -17201,7 +17257,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1296</v>
       </c>
@@ -17224,7 +17280,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1298</v>
       </c>
@@ -17247,7 +17303,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1300</v>
       </c>
@@ -17270,7 +17326,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1302</v>
       </c>
@@ -17293,7 +17349,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1304</v>
       </c>
@@ -17316,7 +17372,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1306</v>
       </c>
@@ -17339,7 +17395,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1308</v>
       </c>
@@ -17362,7 +17418,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1310</v>
       </c>
@@ -17385,7 +17441,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1312</v>
       </c>
@@ -17408,7 +17464,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1314</v>
       </c>
@@ -17431,7 +17487,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1316</v>
       </c>
@@ -17454,7 +17510,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1318</v>
       </c>
@@ -17477,7 +17533,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1320</v>
       </c>
@@ -17500,7 +17556,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1322</v>
       </c>
@@ -17523,7 +17579,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1324</v>
       </c>
@@ -17546,7 +17602,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1326</v>
       </c>
@@ -17569,7 +17625,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1328</v>
       </c>
@@ -17592,7 +17648,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1330</v>
       </c>
@@ -17615,7 +17671,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1332</v>
       </c>
@@ -17638,7 +17694,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1334</v>
       </c>
@@ -17661,7 +17717,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1336</v>
       </c>
@@ -17684,7 +17740,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1338</v>
       </c>
@@ -17707,7 +17763,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1340</v>
       </c>
@@ -17730,7 +17786,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1342</v>
       </c>
@@ -17753,7 +17809,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1344</v>
       </c>
@@ -17776,7 +17832,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1346</v>
       </c>
@@ -17799,7 +17855,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1348</v>
       </c>
@@ -17822,7 +17878,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1350</v>
       </c>
@@ -17845,7 +17901,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1352</v>
       </c>
@@ -17868,7 +17924,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1354</v>
       </c>
@@ -17891,7 +17947,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1356</v>
       </c>
@@ -17914,7 +17970,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1358</v>
       </c>
@@ -17937,7 +17993,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1360</v>
       </c>
@@ -17960,7 +18016,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1362</v>
       </c>
@@ -17983,7 +18039,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1364</v>
       </c>
@@ -18006,7 +18062,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1366</v>
       </c>
@@ -18029,7 +18085,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1368</v>
       </c>
@@ -18052,7 +18108,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1370</v>
       </c>
@@ -18075,7 +18131,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1372</v>
       </c>
@@ -18098,7 +18154,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1374</v>
       </c>
@@ -18121,7 +18177,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1376</v>
       </c>
@@ -18144,7 +18200,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1378</v>
       </c>
@@ -18167,7 +18223,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1380</v>
       </c>
@@ -18190,7 +18246,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1382</v>
       </c>
@@ -18213,7 +18269,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1384</v>
       </c>
@@ -18236,7 +18292,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1386</v>
       </c>
@@ -18259,7 +18315,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1388</v>
       </c>
@@ -18282,7 +18338,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1390</v>
       </c>
@@ -18305,7 +18361,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1392</v>
       </c>
@@ -18328,7 +18384,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1394</v>
       </c>
@@ -18351,7 +18407,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1396</v>
       </c>
@@ -18374,7 +18430,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1398</v>
       </c>
@@ -18397,7 +18453,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1400</v>
       </c>
@@ -18420,7 +18476,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1402</v>
       </c>
@@ -18443,7 +18499,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1404</v>
       </c>
@@ -18466,7 +18522,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1406</v>
       </c>
@@ -18489,7 +18545,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1408</v>
       </c>
@@ -18512,7 +18568,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1410</v>
       </c>
@@ -18535,7 +18591,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1412</v>
       </c>
@@ -18558,7 +18614,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1414</v>
       </c>
@@ -18581,7 +18637,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1416</v>
       </c>
@@ -18604,7 +18660,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1418</v>
       </c>
@@ -18627,7 +18683,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1420</v>
       </c>
@@ -18650,7 +18706,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1422</v>
       </c>
@@ -18673,7 +18729,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1424</v>
       </c>
@@ -18696,7 +18752,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1426</v>
       </c>
@@ -18719,7 +18775,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1428</v>
       </c>
@@ -18742,7 +18798,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1430</v>
       </c>
@@ -18765,7 +18821,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1432</v>
       </c>
@@ -18788,7 +18844,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1434</v>
       </c>
@@ -18811,7 +18867,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1436</v>
       </c>
@@ -18834,7 +18890,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1438</v>
       </c>
@@ -18857,7 +18913,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1440</v>
       </c>
@@ -18880,7 +18936,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1442</v>
       </c>
@@ -18903,7 +18959,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1444</v>
       </c>
@@ -18926,7 +18982,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1446</v>
       </c>
@@ -18949,7 +19005,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1448</v>
       </c>
@@ -18972,7 +19028,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1450</v>
       </c>
@@ -18995,7 +19051,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1452</v>
       </c>
@@ -19018,7 +19074,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1454</v>
       </c>
@@ -19041,7 +19097,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1456</v>
       </c>
@@ -19064,7 +19120,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1458</v>
       </c>
@@ -19087,7 +19143,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1460</v>
       </c>
@@ -19110,7 +19166,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1462</v>
       </c>
@@ -19133,7 +19189,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1464</v>
       </c>
@@ -19156,7 +19212,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1466</v>
       </c>
@@ -19179,7 +19235,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1468</v>
       </c>
@@ -19202,7 +19258,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1470</v>
       </c>
@@ -19225,7 +19281,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1472</v>
       </c>
@@ -19248,7 +19304,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1474</v>
       </c>
@@ -19271,7 +19327,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1476</v>
       </c>
@@ -19294,7 +19350,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1478</v>
       </c>
@@ -19317,7 +19373,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1480</v>
       </c>
@@ -19340,7 +19396,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1482</v>
       </c>
@@ -19363,7 +19419,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1484</v>
       </c>
@@ -19386,7 +19442,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1486</v>
       </c>
@@ -19409,7 +19465,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1488</v>
       </c>
@@ -19432,7 +19488,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1490</v>
       </c>
@@ -19455,7 +19511,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1492</v>
       </c>
@@ -19478,7 +19534,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1494</v>
       </c>
@@ -19501,7 +19557,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1496</v>
       </c>
@@ -19524,7 +19580,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1498</v>
       </c>
@@ -19547,7 +19603,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1500</v>
       </c>
@@ -19570,7 +19626,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1502</v>
       </c>
@@ -19593,7 +19649,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1504</v>
       </c>
@@ -19616,7 +19672,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1506</v>
       </c>
@@ -19639,7 +19695,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1508</v>
       </c>
@@ -19662,7 +19718,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1510</v>
       </c>
@@ -19685,7 +19741,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1512</v>
       </c>
@@ -19708,7 +19764,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1514</v>
       </c>
@@ -19731,7 +19787,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1516</v>
       </c>
@@ -19754,7 +19810,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1518</v>
       </c>
@@ -19777,7 +19833,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1520</v>
       </c>
@@ -19800,7 +19856,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1522</v>
       </c>
@@ -19823,7 +19879,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1524</v>
       </c>
@@ -19846,7 +19902,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1526</v>
       </c>
@@ -19869,7 +19925,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1528</v>
       </c>
@@ -19892,7 +19948,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1530</v>
       </c>
@@ -19915,7 +19971,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1532</v>
       </c>
@@ -19938,7 +19994,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1534</v>
       </c>
@@ -19961,7 +20017,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1536</v>
       </c>
@@ -19984,7 +20040,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1538</v>
       </c>
@@ -20007,7 +20063,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1540</v>
       </c>
@@ -20030,7 +20086,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1542</v>
       </c>
@@ -20053,7 +20109,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1544</v>
       </c>
@@ -20076,7 +20132,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1546</v>
       </c>
@@ -20099,7 +20155,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1548</v>
       </c>
@@ -20122,7 +20178,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1550</v>
       </c>
@@ -20145,7 +20201,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1552</v>
       </c>
@@ -20168,7 +20224,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1554</v>
       </c>
@@ -20191,7 +20247,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1556</v>
       </c>
@@ -20214,7 +20270,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1558</v>
       </c>
@@ -20237,7 +20293,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1560</v>
       </c>
@@ -20260,7 +20316,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1562</v>
       </c>
@@ -20283,7 +20339,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1564</v>
       </c>
@@ -20306,7 +20362,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1566</v>
       </c>
@@ -20329,7 +20385,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1568</v>
       </c>
@@ -20352,7 +20408,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1570</v>
       </c>
@@ -20375,7 +20431,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1572</v>
       </c>
@@ -20398,7 +20454,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1574</v>
       </c>
@@ -20421,7 +20477,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1576</v>
       </c>
@@ -20444,7 +20500,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1578</v>
       </c>
@@ -20467,7 +20523,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1580</v>
       </c>
@@ -20490,7 +20546,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1582</v>
       </c>
@@ -20513,7 +20569,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1584</v>
       </c>
@@ -20536,7 +20592,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1586</v>
       </c>
@@ -20559,7 +20615,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1588</v>
       </c>
@@ -20582,7 +20638,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1590</v>
       </c>
@@ -20605,7 +20661,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1592</v>
       </c>
@@ -20628,7 +20684,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1594</v>
       </c>
@@ -20651,7 +20707,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1596</v>
       </c>
@@ -20674,7 +20730,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1598</v>
       </c>
@@ -20697,7 +20753,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1600</v>
       </c>
@@ -20720,7 +20776,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1602</v>
       </c>
@@ -20743,7 +20799,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1604</v>
       </c>
@@ -20766,7 +20822,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1606</v>
       </c>
@@ -20789,7 +20845,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1608</v>
       </c>
@@ -20812,7 +20868,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1610</v>
       </c>
